--- a/team_specific_matrix/Marshall_B.xlsx
+++ b/team_specific_matrix/Marshall_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.145374449339207</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="C2">
-        <v>0.6563876651982379</v>
+        <v>0.6240601503759399</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004405286343612335</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1013215859030837</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09251101321585903</v>
+        <v>0.09022556390977443</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02702702702702703</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.722972972972973</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.2650602409638554</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03571428571428571</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6428571428571429</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3214285714285715</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09032258064516129</v>
+        <v>0.08426966292134831</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006451612903225806</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02580645161290323</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2258064516129032</v>
+        <v>0.2191011235955056</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01290322580645161</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.167741935483871</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="R6">
-        <v>0.09032258064516129</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="S6">
-        <v>0.3806451612903226</v>
+        <v>0.3651685393258427</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06962025316455696</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0189873417721519</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04430379746835443</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1392405063291139</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0189873417721519</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2215189873417721</v>
+        <v>0.2078651685393259</v>
       </c>
       <c r="R7">
-        <v>0.05063291139240506</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="S7">
-        <v>0.4367088607594937</v>
+        <v>0.4550561797752809</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1036585365853658</v>
+        <v>0.09921671018276762</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0274390243902439</v>
+        <v>0.02610966057441253</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04878048780487805</v>
+        <v>0.04960835509138381</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1097560975609756</v>
+        <v>0.1174934725848564</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006097560975609756</v>
+        <v>0.007832898172323759</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1859756097560976</v>
+        <v>0.1827676240208877</v>
       </c>
       <c r="R8">
-        <v>0.1158536585365854</v>
+        <v>0.1148825065274151</v>
       </c>
       <c r="S8">
-        <v>0.4024390243902439</v>
+        <v>0.402088772845953</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08287292817679558</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005524861878453038</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0718232044198895</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1215469613259668</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01104972375690608</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1767955801104972</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="R9">
-        <v>0.06629834254143646</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="S9">
-        <v>0.4640883977900552</v>
+        <v>0.4744897959183674</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1097674418604651</v>
+        <v>0.1130856219709208</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01302325581395349</v>
+        <v>0.01373182552504039</v>
       </c>
       <c r="E10">
-        <v>0.00186046511627907</v>
+        <v>0.002423263327948304</v>
       </c>
       <c r="F10">
-        <v>0.06697674418604652</v>
+        <v>0.06946688206785137</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09581395348837209</v>
+        <v>0.1017770597738288</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01209302325581395</v>
+        <v>0.01373182552504039</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2344186046511628</v>
+        <v>0.2237479806138934</v>
       </c>
       <c r="R10">
-        <v>0.08744186046511628</v>
+        <v>0.08966074313408724</v>
       </c>
       <c r="S10">
-        <v>0.3786046511627907</v>
+        <v>0.3723747980613893</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1686274509803922</v>
+        <v>0.156794425087108</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09803921568627451</v>
+        <v>0.10801393728223</v>
       </c>
       <c r="K11">
-        <v>0.2274509803921569</v>
+        <v>0.2229965156794425</v>
       </c>
       <c r="L11">
-        <v>0.5019607843137255</v>
+        <v>0.5052264808362369</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00392156862745098</v>
+        <v>0.006968641114982578</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7196969696969697</v>
+        <v>0.7218543046357616</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2272727272727273</v>
+        <v>0.2185430463576159</v>
       </c>
       <c r="K12">
-        <v>0.01515151515151515</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007575757575757576</v>
+        <v>0.01986754966887417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3125</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01333333333333333</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.14</v>
+        <v>0.151685393258427</v>
       </c>
       <c r="I15">
-        <v>0.08666666666666667</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J15">
-        <v>0.4066666666666667</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="K15">
-        <v>0.03333333333333333</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03333333333333333</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2666666666666667</v>
+        <v>0.2808988764044944</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1586206896551724</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="I16">
-        <v>0.103448275862069</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="J16">
-        <v>0.4068965517241379</v>
+        <v>0.4011976047904192</v>
       </c>
       <c r="K16">
-        <v>0.1241379310344828</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.006896551724137931</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02758620689655172</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1724137931034483</v>
+        <v>0.1676646706586826</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0171990171990172</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1572481572481572</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="I17">
-        <v>0.1105651105651106</v>
+        <v>0.1140939597315436</v>
       </c>
       <c r="J17">
-        <v>0.457002457002457</v>
+        <v>0.4519015659955257</v>
       </c>
       <c r="K17">
-        <v>0.07371007371007371</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0171990171990172</v>
+        <v>0.01565995525727069</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002237136465324385</v>
       </c>
       <c r="O17">
-        <v>0.04914004914004914</v>
+        <v>0.0447427293064877</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1179361179361179</v>
+        <v>0.1230425055928412</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02424242424242424</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1878787878787879</v>
+        <v>0.1917098445595855</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="J18">
-        <v>0.4303030303030303</v>
+        <v>0.4404145077720207</v>
       </c>
       <c r="K18">
-        <v>0.09090909090909091</v>
+        <v>0.08290155440414508</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006060606060606061</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04848484848484848</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1212121212121212</v>
+        <v>0.1139896373056995</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005581395348837209</v>
+        <v>0.004838709677419355</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1832558139534884</v>
+        <v>0.1862903225806452</v>
       </c>
       <c r="I19">
-        <v>0.08837209302325581</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="J19">
-        <v>0.3916279069767442</v>
+        <v>0.3959677419354839</v>
       </c>
       <c r="K19">
-        <v>0.1162790697674419</v>
+        <v>0.1145161290322581</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0186046511627907</v>
+        <v>0.01774193548387097</v>
       </c>
       <c r="N19">
-        <v>0.00186046511627907</v>
+        <v>0.001612903225806452</v>
       </c>
       <c r="O19">
-        <v>0.06883720930232558</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1255813953488372</v>
+        <v>0.1298387096774194</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Marshall_B.xlsx
+++ b/team_specific_matrix/Marshall_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1616541353383459</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="C2">
-        <v>0.6240601503759399</v>
+        <v>0.6360544217687075</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003759398496240601</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1203007518796992</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09022556390977443</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02409638554216868</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7108433734939759</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2650602409638554</v>
+        <v>0.267379679144385</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08426966292134831</v>
+        <v>0.0945273631840796</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01123595505617977</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03370786516853932</v>
+        <v>0.03482587064676617</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2191011235955056</v>
+        <v>0.2189054726368159</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02247191011235955</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1685393258426966</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="R6">
-        <v>0.09550561797752809</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="S6">
-        <v>0.3651685393258427</v>
+        <v>0.3432835820895522</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06741573033707865</v>
+        <v>0.06735751295336788</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01685393258426966</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03932584269662921</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1348314606741573</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02247191011235955</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2078651685393259</v>
+        <v>0.2176165803108808</v>
       </c>
       <c r="R7">
-        <v>0.05617977528089887</v>
+        <v>0.06217616580310881</v>
       </c>
       <c r="S7">
-        <v>0.4550561797752809</v>
+        <v>0.4455958549222798</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09921671018276762</v>
+        <v>0.08924485125858124</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02610966057441253</v>
+        <v>0.02288329519450801</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04960835509138381</v>
+        <v>0.04805491990846682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1174934725848564</v>
+        <v>0.1281464530892449</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007832898172323759</v>
+        <v>0.006864988558352402</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1827676240208877</v>
+        <v>0.1807780320366133</v>
       </c>
       <c r="R8">
-        <v>0.1148825065274151</v>
+        <v>0.1167048054919908</v>
       </c>
       <c r="S8">
-        <v>0.402088772845953</v>
+        <v>0.4073226544622426</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07653061224489796</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01020408163265306</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0663265306122449</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1275510204081633</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01530612244897959</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1683673469387755</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="R9">
-        <v>0.06122448979591837</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="S9">
-        <v>0.4744897959183674</v>
+        <v>0.463302752293578</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1130856219709208</v>
+        <v>0.1151339608979001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01373182552504039</v>
+        <v>0.01448225923244026</v>
       </c>
       <c r="E10">
-        <v>0.002423263327948304</v>
+        <v>0.002172338884866039</v>
       </c>
       <c r="F10">
-        <v>0.06946688206785137</v>
+        <v>0.06879073135409124</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1017770597738288</v>
+        <v>0.1035481535119479</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01373182552504039</v>
+        <v>0.01375814627081825</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2237479806138934</v>
+        <v>0.2295438088341781</v>
       </c>
       <c r="R10">
-        <v>0.08966074313408724</v>
+        <v>0.08472121650977553</v>
       </c>
       <c r="S10">
-        <v>0.3723747980613893</v>
+        <v>0.3678493845039826</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.156794425087108</v>
+        <v>0.1543408360128617</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.10801393728223</v>
+        <v>0.1028938906752412</v>
       </c>
       <c r="K11">
-        <v>0.2229965156794425</v>
+        <v>0.2218649517684887</v>
       </c>
       <c r="L11">
-        <v>0.5052264808362369</v>
+        <v>0.5112540192926045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006968641114982578</v>
+        <v>0.009646302250803859</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7218543046357616</v>
+        <v>0.7228915662650602</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2185430463576159</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="K12">
-        <v>0.01324503311258278</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="L12">
-        <v>0.02649006622516556</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01986754966887417</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6944444444444444</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01123595505617977</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.151685393258427</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="I15">
-        <v>0.07865168539325842</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="J15">
-        <v>0.3820224719101123</v>
+        <v>0.3718592964824121</v>
       </c>
       <c r="K15">
-        <v>0.02808988764044944</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02247191011235955</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0449438202247191</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2808988764044944</v>
+        <v>0.2814070351758794</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,28 +1342,28 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1676646706586826</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="I16">
-        <v>0.09580838323353294</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J16">
-        <v>0.4011976047904192</v>
+        <v>0.4043715846994536</v>
       </c>
       <c r="K16">
-        <v>0.1317365269461078</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005988023952095809</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02994011976047904</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1676646706586826</v>
+        <v>0.1639344262295082</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01789709172259508</v>
+        <v>0.01956947162426614</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1543624161073825</v>
+        <v>0.1565557729941291</v>
       </c>
       <c r="I17">
-        <v>0.1140939597315436</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J17">
-        <v>0.4519015659955257</v>
+        <v>0.436399217221135</v>
       </c>
       <c r="K17">
-        <v>0.07606263982102908</v>
+        <v>0.07436399217221135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01565995525727069</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N17">
-        <v>0.002237136465324385</v>
+        <v>0.001956947162426614</v>
       </c>
       <c r="O17">
-        <v>0.0447427293064877</v>
+        <v>0.04892367906066536</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1230425055928412</v>
+        <v>0.1389432485322896</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02072538860103627</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1917098445595855</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="I18">
-        <v>0.08808290155440414</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="J18">
-        <v>0.4404145077720207</v>
+        <v>0.4292452830188679</v>
       </c>
       <c r="K18">
-        <v>0.08290155440414508</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0155440414507772</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04663212435233161</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1139896373056995</v>
+        <v>0.1179245283018868</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004838709677419355</v>
+        <v>0.005054151624548736</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1862903225806452</v>
+        <v>0.1884476534296029</v>
       </c>
       <c r="I19">
-        <v>0.08064516129032258</v>
+        <v>0.08014440433212996</v>
       </c>
       <c r="J19">
-        <v>0.3959677419354839</v>
+        <v>0.4</v>
       </c>
       <c r="K19">
-        <v>0.1145161290322581</v>
+        <v>0.1111913357400722</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01774193548387097</v>
+        <v>0.01732851985559567</v>
       </c>
       <c r="N19">
-        <v>0.001612903225806452</v>
+        <v>0.001444043321299639</v>
       </c>
       <c r="O19">
-        <v>0.06854838709677419</v>
+        <v>0.06642599277978339</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1298387096774194</v>
+        <v>0.1299638989169675</v>
       </c>
     </row>
   </sheetData>
